--- a/AppliedAI/Models_Finalize.xlsx
+++ b/AppliedAI/Models_Finalize.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{201F3A25-4281-4F46-B745-269CBE772330}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{201F3A25-4281-4F46-B745-269CBE772330}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Missing Values</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Collinearity</t>
-  </si>
-  <si>
-    <t>Required</t>
   </si>
   <si>
     <t>Actions</t>
@@ -179,22 +176,32 @@
   <si>
     <t>alpha : float
 Constant that multiplies the regularization term. Defaults to 0.0001 Also used to compute learning_rate when set to ‘optimal’.</t>
+  </si>
+  <si>
+    <t>Class Imbalance</t>
+  </si>
+  <si>
+    <t>Required to handle</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Checks</t>
+  </si>
+  <si>
+    <t>Support Vector Machies</t>
+  </si>
+  <si>
+    <t>Click Link to Navigate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -209,8 +216,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,12 +273,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -247,105 +307,58 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -661,23 +674,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB54F80B-3BD5-4132-ABFD-F850D773F3E6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>20</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="LogisticRegression!A1" display="Logistic Regression" xr:uid="{74A0C86F-D2B2-4BD8-893D-68A5DDA0B34C}"/>
+    <hyperlink ref="A2" location="LogisticRegression!A1" display="Logistic Regression" xr:uid="{74A0C86F-D2B2-4BD8-893D-68A5DDA0B34C}"/>
+    <hyperlink ref="A3" location="SVM!A1" display="SVM" xr:uid="{F439495E-C1CC-4EA6-9CF6-440D1B06CFEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -687,231 +746,241 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAF45D9-EB24-4E69-B740-46A9EC9CF64E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="144.5703125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="9" t="s">
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="10" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="B29" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{8A4B5467-0E8F-4DA3-9B80-322CE79D1CF8}"/>
@@ -923,14 +992,195 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3950ABF6-D350-4020-A5F8-29409564E88C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A25:A27"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{29B15435-5FD1-4FEF-9A3F-E24AF6AC8A4B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AppliedAI/Models_Finalize.xlsx
+++ b/AppliedAI/Models_Finalize.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prudhviraju.s\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{201F3A25-4281-4F46-B745-269CBE772330}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="909" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
     <sheet name="LogisticRegression" sheetId="1" r:id="rId2"/>
-    <sheet name="SVM" sheetId="3" r:id="rId3"/>
+    <sheet name="Kernal_SVM" sheetId="4" r:id="rId3"/>
+    <sheet name="Soft Margin_SVM" sheetId="3" r:id="rId4"/>
+    <sheet name="SVM_Regressor" sheetId="5" r:id="rId5"/>
+    <sheet name="Decision Tree_Classifier" sheetId="6" r:id="rId6"/>
+    <sheet name="Random Forest_Classifier" sheetId="7" r:id="rId7"/>
+    <sheet name="Gradient Boosting Classifier" sheetId="9" r:id="rId8"/>
+    <sheet name="XG Boosting_Classifier" sheetId="8" r:id="rId9"/>
+    <sheet name="PCA" sheetId="10" r:id="rId10"/>
+    <sheet name="TSNE" sheetId="11" r:id="rId11"/>
+    <sheet name="KNN" sheetId="12" r:id="rId12"/>
+    <sheet name="KFold" sheetId="13" r:id="rId13"/>
+    <sheet name="Linear Regression" sheetId="14" r:id="rId14"/>
+    <sheet name="Pipe Line" sheetId="15" r:id="rId15"/>
+    <sheet name="Stacking Classifiers" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
   <si>
     <t>Missing Values</t>
   </si>
@@ -59,9 +67,6 @@
 If we use L1 reg is LR, most of the unimportant features will become zero</t>
   </si>
   <si>
-    <t>Extensions</t>
-  </si>
-  <si>
     <t>Feature Importance</t>
   </si>
   <si>
@@ -81,9 +86,6 @@
   </si>
   <si>
     <t>Collinearity</t>
-  </si>
-  <si>
-    <t>Required</t>
   </si>
   <si>
     <t>Actions</t>
@@ -180,21 +182,578 @@
     <t>alpha : float
 Constant that multiplies the regularization term. Defaults to 0.0001 Also used to compute learning_rate when set to ‘optimal’.</t>
   </si>
+  <si>
+    <t>Class Imbalance</t>
+  </si>
+  <si>
+    <t>Required to handle</t>
+  </si>
+  <si>
+    <t>Checks</t>
+  </si>
+  <si>
+    <t>Click Link to Navigate</t>
+  </si>
+  <si>
+    <t>Extension Algorithms</t>
+  </si>
+  <si>
+    <t>We will work for the margin maximizing hyperplane in the Space of Xi's. This is not the world changing idea</t>
+  </si>
+  <si>
+    <t>We will be finding a hyper plane (Bad if data is not linearly sperable) - Successful with the non linear feature transform</t>
+  </si>
+  <si>
+    <t>Kernalization enables svm to handle non linear data</t>
+  </si>
+  <si>
+    <t>We have to perform explicit feature transformation should be done</t>
+  </si>
+  <si>
+    <t>Selecting the right kernal is most important job</t>
+  </si>
+  <si>
+    <t>Assumption/Important Notes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kernalization implicitly converts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d dimensions to d_dash dimensions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Implicit does Feature Transformation)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Types of Kernals -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Polynomical Kernal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> k(x1,x2)=(X1_T X2+C)^d
+If d=2 and c=1 it is called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quodratic kernal</t>
+    </r>
+  </si>
+  <si>
+    <t>Equation=1/2 ||w|| + C * SUM(zeta)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radial Basis Function based kernal (RBF) - The most important and used kernal
+Krbf(x1,x2)=exp(-||x1-x2||^2/2 sigma^2)
+ -&gt; ||X1-X2||^2=d1^2
+-&gt; Sigma is the hyper parameter
+As d increases krbf(x1,x2) decreases. Which means if k(x1,x2)=0 then x1 and x2 are farther away from each other
+</t>
+  </si>
+  <si>
+    <t>Note: Dissimilairy = Distance
+Similarity=k
+If Sigma
+=1 , k=0 at distance=2 (Points which are close have similarity=1 and rest all other points are dissimilar)
+=0.1 the Sigma^2=0.01 and k=0 at distance=1 (Equalent to small k in KNN)
+=10 sigma^2=100 and k=0 at distance=8 (Equalent to LARGE k in KNN)</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>How RBF kernal is related to KNN
+How RBF kernal is related to Logistic Regression
+How polynomial kernal is equal to feature transformations</t>
+  </si>
+  <si>
+    <t>As sigma increases is equal to k increase in KNN beacause of Sigma
+RBF-Kernal is similar to KNN</t>
+  </si>
+  <si>
+    <t>If KNN we have to store all the K points in the Locality Sensitive Hashine
+Where as in RBF-SVM we have to store only the Support Vectors (alpha_i's)
+alpha_i&gt; 0 for support vectors and alpha_i=0 for non support vectors
+Number of support vectors is much less than the number of points</t>
+  </si>
+  <si>
+    <t>If we don't know what kernel to use. We can use RBF Kernal</t>
+  </si>
+  <si>
+    <t>Domain Specific Kernals</t>
+  </si>
+  <si>
+    <t>String Kernals (Amaxon Fine Food Reviews)
+Genome kernals
+Graph kernals</t>
+  </si>
+  <si>
+    <t>class sklearn.svm.SVC(C=1.0, kernel=’rbf’, degree=3, gamma=’auto_deprecated’, coef0=0.0, shrinking=True, probability=False, tol=0.001, cache_size=200, class_weight=None, verbose=False, max_iter=-1, decision_function_shape=’ovr’, random_state=None)</t>
+  </si>
+  <si>
+    <t>Syntax SVC Classifier</t>
+  </si>
+  <si>
+    <t>No need to handle</t>
+  </si>
+  <si>
+    <t>Preffered to do feature scaling</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Run Time and Space Complexities</t>
+  </si>
+  <si>
+    <t>O(d)
+D- Dimensions</t>
+  </si>
+  <si>
+    <t>C : float, optional (default=1.0)
+Penalty parameter C of the error term.</t>
+  </si>
+  <si>
+    <t>kernel : string, optional (default=’rbf’)
+Specifies the kernel type to be used in the algorithm. It must be one of ‘linear’, ‘poly’, ‘rbf’, ‘sigmoid’, ‘precomputed’ or a callable. If none is given, ‘rbf’ will be used. If a callable is given it is used to pre-compute the kernel matrix from data matrices; that matrix should be an array of shape (n_samples, n_samples)</t>
+  </si>
+  <si>
+    <t>degree : int, optional (default=3)
+Degree of the polynomial kernel function (‘poly’). Ignored by all other kernels.</t>
+  </si>
+  <si>
+    <t>probability : boolean, optional (default=False)
+Whether to enable probability estimates. This must be enabled prior to calling fit, and will slow down that method.</t>
+  </si>
+  <si>
+    <t>gamma : float, optional (default=’auto’)
+Kernel coefficient for ‘rbf’, ‘poly’ and ‘sigmoid’.
+Current default is ‘auto’ which uses 1 / n_features, if gamma='scale' is passed then it uses 1 / (n_features * X.std()) as value of gamma. The current default of gamma, ‘auto’, will change to ‘scale’ in version 0.22. ‘auto_deprecated’, a deprecated version of ‘auto’ is used as a default indicating that no explicit value of gamma was passed.</t>
+  </si>
+  <si>
+    <t>Feature Importance/Interpretability</t>
+  </si>
+  <si>
+    <t>Not Possible. We can use feature importance</t>
+  </si>
+  <si>
+    <t>Very good for svm</t>
+  </si>
+  <si>
+    <t>Don't use when n is very large o(n^2). People end up using Logistic Regression</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>For RBF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+C (From soft margin) (Decreases - Underfit, Increases - Overfit)
+Sigma (From RBF) (Like k in KNN) - &gt; gamma = 1/sigma (sigma decreases or gamma increases -&gt; Overfit and sigma increases or gamma decreases =&gt; Underfit)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">For Polynomial Kernal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>C
+d</t>
+    </r>
+  </si>
+  <si>
+    <t>Linear, Polynomial, RBF, NU SVM….</t>
+  </si>
+  <si>
+    <t>Regressor - Support Vector Machies</t>
+  </si>
+  <si>
+    <t>sum(1/2(||w||). 
+Y_hat-y&lt;=epsilon
+Y-y_hat&lt;=epsilon</t>
+  </si>
+  <si>
+    <t>Epsilon
+Decreases - Overfit
+Increases - Underfit</t>
+  </si>
+  <si>
+    <t>RBF Svr is very similar to KNN</t>
+  </si>
+  <si>
+    <t>Don't use when n is very large o(n^2). People end up using Logistic Regression
+Example: Internet based applications</t>
+  </si>
+  <si>
+    <t>Very little impact</t>
+  </si>
+  <si>
+    <t>Syntax SVM Classifier</t>
+  </si>
+  <si>
+    <t>from sklearn.svm import SVC
+svc_clf=SVC(C=10,kernel='linear',probability=True)
+svc_clf.fit(tips,Y)
+svc_clf.predict_proba(tips)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>svc_clf.coef_</t>
+  </si>
+  <si>
+    <t>svc_poly=SVC(kernel='poly',degree=2,gamma=0.01,probability=True)</t>
+  </si>
+  <si>
+    <t>svc_poly=SVC(kernel='rbf',degree=2,gamma=0.01,probability=True)</t>
+  </si>
+  <si>
+    <t>Linear Support Vector Machies - Soft Margin SVM</t>
+  </si>
+  <si>
+    <t>Kernal Trick- Support Vector Machies</t>
+  </si>
+  <si>
+    <t>Kernal SVM</t>
+  </si>
+  <si>
+    <t>Soft Margin SVM</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>XGBoosting</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>TSNE</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>KFOLD</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>SVM Regressor</t>
+  </si>
+  <si>
+    <t>Hyper Parameters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The parameters used for defining a tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>min_samples_split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defines the minimum number of samples (or observations) which are required in a node to be considered for splitting.
+Used to control over-fitting. Higher values prevent a model from learning relations which might be highly specific to the particular sample selected for a tree.
+Too high values can lead to under-fitting hence, it should be tuned using CV.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>min_samples_leaf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defines the minimum samples (or observations) required in a terminal node or leaf.
+Used to control over-fitting similar to min_samples_split.
+Generally lower values should be chosen for imbalanced class problems because the regions in which the minority class will be in majority will be very small.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>min_weight_fraction_leaf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Similar to min_samples_leaf but defined as a fraction of the total number of observations instead of an integer.
+Only one of #2 and #3 should be defined.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>max_depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The maximum depth of a tree.
+Used to control over-fitting as higher depth will allow model to learn relations very specific to a particular sample.
+Should be tuned using CV.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>max_leaf_nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The maximum number of terminal nodes or leaves in a tree.
+Can be defined in place of max_depth. Since binary trees are created, a depth of ‘n’ would produce a maximum of 2^n leaves.
+If this is defined, GBM will ignore max_depth.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>max_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The number of features to consider while searching for a best split. These will be randomly selected.
+As a thumb-rule, square root of the total number of features works great but we should check upto 30-40% of the total number of features.
+Higher values can lead to over-fitting but depends on case to case.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> parameters for managing boosting:
+learning_rate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>This determines the impact of each tree on the final outcome (step 2.4). GBM works by starting with an initial estimate which is updated using the output of each tree. The learning parameter controls the magnitude of this change in the estimates.
+Lower values are generally preferred as they make the model robust to the specific characteristics of tree and thus allowing it to generalize well.
+Lower values would require higher number of trees to model all the relations and will be computationally expensive.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+n_estimators
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The number of sequential trees to be modeled (step 2)
+Though GBM is fairly robust at higher number of trees but it can still overfit at a point. Hence, this should be tuned using CV for a particular learning rate.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+subsample
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The fraction of observations to be selected for each tree. Selection is done by random sampling.
+Values slightly less than 1 make the model robust by reducing the variance.
+Typical values ~0.8 generally work fine but can be fine-tuned further.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2016/03/complete-guide-parameter-tuning-xgboost-with-codes-python/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -209,8 +768,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,12 +840,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -248,43 +881,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -296,55 +892,86 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -407,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -459,7 +1086,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -653,268 +1280,448 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB54F80B-3BD5-4132-ABFD-F850D773F3E6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>20</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="LogisticRegression!A1" display="Logistic Regression" xr:uid="{74A0C86F-D2B2-4BD8-893D-68A5DDA0B34C}"/>
+    <hyperlink ref="A2" location="LogisticRegression!A1" display="Logistic Regression"/>
+    <hyperlink ref="A3" location="SVM!A1" display="SVM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAF45D9-EB24-4E69-B740-46A9EC9CF64E}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B28"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="144.5703125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{8A4B5467-0E8F-4DA3-9B80-322CE79D1CF8}"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -922,15 +1729,1079 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3950ABF6-D350-4020-A5F8-29409564E88C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A31:A37"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A28:A30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A26:A34"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A30:A31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AppliedAI/Models_Finalize.xlsx
+++ b/AppliedAI/Models_Finalize.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prudhviraju.s\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{201F3A25-4281-4F46-B745-269CBE772330}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="909" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
     <sheet name="LogisticRegression" sheetId="1" r:id="rId2"/>
-    <sheet name="SVM" sheetId="3" r:id="rId3"/>
+    <sheet name="Kernal_SVM" sheetId="4" r:id="rId3"/>
+    <sheet name="Soft Margin_SVM" sheetId="3" r:id="rId4"/>
+    <sheet name="SVM_Regressor" sheetId="5" r:id="rId5"/>
+    <sheet name="Decision Tree_Classifier" sheetId="6" r:id="rId6"/>
+    <sheet name="Random Forest_Classifier" sheetId="7" r:id="rId7"/>
+    <sheet name="Gradient Boosting Classifier" sheetId="9" r:id="rId8"/>
+    <sheet name="XG Boosting_Classifier" sheetId="8" r:id="rId9"/>
+    <sheet name="PCA" sheetId="10" r:id="rId10"/>
+    <sheet name="TSNE" sheetId="11" r:id="rId11"/>
+    <sheet name="KNN" sheetId="12" r:id="rId12"/>
+    <sheet name="KFold" sheetId="13" r:id="rId13"/>
+    <sheet name="Naive Bayes" sheetId="18" r:id="rId14"/>
+    <sheet name="Kmeans" sheetId="17" r:id="rId15"/>
+    <sheet name="Linear Regression" sheetId="14" r:id="rId16"/>
+    <sheet name="Pipe Line" sheetId="15" r:id="rId17"/>
+    <sheet name="Stacking Classifiers" sheetId="16" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="142">
   <si>
     <t>Missing Values</t>
   </si>
@@ -57,9 +68,6 @@
   <si>
     <t>Solution to LR is said to be sparse if many wi's are zero.
 If we use L1 reg is LR, most of the unimportant features will become zero</t>
-  </si>
-  <si>
-    <t>Extensions</t>
   </si>
   <si>
     <t>Feature Importance</t>
@@ -184,23 +192,663 @@
     <t>Required to handle</t>
   </si>
   <si>
-    <t>SVM</t>
-  </si>
-  <si>
     <t>Checks</t>
   </si>
   <si>
-    <t>Support Vector Machies</t>
-  </si>
-  <si>
     <t>Click Link to Navigate</t>
+  </si>
+  <si>
+    <t>Extension Algorithms</t>
+  </si>
+  <si>
+    <t>We will work for the margin maximizing hyperplane in the Space of Xi's. This is not the world changing idea</t>
+  </si>
+  <si>
+    <t>We will be finding a hyper plane (Bad if data is not linearly sperable) - Successful with the non linear feature transform</t>
+  </si>
+  <si>
+    <t>Kernalization enables svm to handle non linear data</t>
+  </si>
+  <si>
+    <t>We have to perform explicit feature transformation should be done</t>
+  </si>
+  <si>
+    <t>Selecting the right kernal is most important job</t>
+  </si>
+  <si>
+    <t>Assumption/Important Notes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kernalization implicitly converts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d dimensions to d_dash dimensions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Implicit does Feature Transformation)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Types of Kernals -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Polynomical Kernal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> k(x1,x2)=(X1_T X2+C)^d
+If d=2 and c=1 it is called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quodratic kernal</t>
+    </r>
+  </si>
+  <si>
+    <t>Equation=1/2 ||w|| + C * SUM(zeta)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radial Basis Function based kernal (RBF) - The most important and used kernal
+Krbf(x1,x2)=exp(-||x1-x2||^2/2 sigma^2)
+ -&gt; ||X1-X2||^2=d1^2
+-&gt; Sigma is the hyper parameter
+As d increases krbf(x1,x2) decreases. Which means if k(x1,x2)=0 then x1 and x2 are farther away from each other
+</t>
+  </si>
+  <si>
+    <t>Note: Dissimilairy = Distance
+Similarity=k
+If Sigma
+=1 , k=0 at distance=2 (Points which are close have similarity=1 and rest all other points are dissimilar)
+=0.1 the Sigma^2=0.01 and k=0 at distance=1 (Equalent to small k in KNN)
+=10 sigma^2=100 and k=0 at distance=8 (Equalent to LARGE k in KNN)</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>How RBF kernal is related to KNN
+How RBF kernal is related to Logistic Regression
+How polynomial kernal is equal to feature transformations</t>
+  </si>
+  <si>
+    <t>As sigma increases is equal to k increase in KNN beacause of Sigma
+RBF-Kernal is similar to KNN</t>
+  </si>
+  <si>
+    <t>If KNN we have to store all the K points in the Locality Sensitive Hashine
+Where as in RBF-SVM we have to store only the Support Vectors (alpha_i's)
+alpha_i&gt; 0 for support vectors and alpha_i=0 for non support vectors
+Number of support vectors is much less than the number of points</t>
+  </si>
+  <si>
+    <t>If we don't know what kernel to use. We can use RBF Kernal</t>
+  </si>
+  <si>
+    <t>Domain Specific Kernals</t>
+  </si>
+  <si>
+    <t>String Kernals (Amaxon Fine Food Reviews)
+Genome kernals
+Graph kernals</t>
+  </si>
+  <si>
+    <t>class sklearn.svm.SVC(C=1.0, kernel=’rbf’, degree=3, gamma=’auto_deprecated’, coef0=0.0, shrinking=True, probability=False, tol=0.001, cache_size=200, class_weight=None, verbose=False, max_iter=-1, decision_function_shape=’ovr’, random_state=None)</t>
+  </si>
+  <si>
+    <t>Syntax SVC Classifier</t>
+  </si>
+  <si>
+    <t>No need to handle</t>
+  </si>
+  <si>
+    <t>Preffered to do feature scaling</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Run Time and Space Complexities</t>
+  </si>
+  <si>
+    <t>O(d)
+D- Dimensions</t>
+  </si>
+  <si>
+    <t>C : float, optional (default=1.0)
+Penalty parameter C of the error term.</t>
+  </si>
+  <si>
+    <t>kernel : string, optional (default=’rbf’)
+Specifies the kernel type to be used in the algorithm. It must be one of ‘linear’, ‘poly’, ‘rbf’, ‘sigmoid’, ‘precomputed’ or a callable. If none is given, ‘rbf’ will be used. If a callable is given it is used to pre-compute the kernel matrix from data matrices; that matrix should be an array of shape (n_samples, n_samples)</t>
+  </si>
+  <si>
+    <t>degree : int, optional (default=3)
+Degree of the polynomial kernel function (‘poly’). Ignored by all other kernels.</t>
+  </si>
+  <si>
+    <t>probability : boolean, optional (default=False)
+Whether to enable probability estimates. This must be enabled prior to calling fit, and will slow down that method.</t>
+  </si>
+  <si>
+    <t>gamma : float, optional (default=’auto’)
+Kernel coefficient for ‘rbf’, ‘poly’ and ‘sigmoid’.
+Current default is ‘auto’ which uses 1 / n_features, if gamma='scale' is passed then it uses 1 / (n_features * X.std()) as value of gamma. The current default of gamma, ‘auto’, will change to ‘scale’ in version 0.22. ‘auto_deprecated’, a deprecated version of ‘auto’ is used as a default indicating that no explicit value of gamma was passed.</t>
+  </si>
+  <si>
+    <t>Feature Importance/Interpretability</t>
+  </si>
+  <si>
+    <t>Not Possible. We can use feature importance</t>
+  </si>
+  <si>
+    <t>Very good for svm</t>
+  </si>
+  <si>
+    <t>Don't use when n is very large o(n^2). People end up using Logistic Regression</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>For RBF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+C (From soft margin) (Decreases - Underfit, Increases - Overfit)
+Sigma (From RBF) (Like k in KNN) - &gt; gamma = 1/sigma (sigma decreases or gamma increases -&gt; Overfit and sigma increases or gamma decreases =&gt; Underfit)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">For Polynomial Kernal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>C
+d</t>
+    </r>
+  </si>
+  <si>
+    <t>Linear, Polynomial, RBF, NU SVM….</t>
+  </si>
+  <si>
+    <t>Regressor - Support Vector Machies</t>
+  </si>
+  <si>
+    <t>sum(1/2(||w||). 
+Y_hat-y&lt;=epsilon
+Y-y_hat&lt;=epsilon</t>
+  </si>
+  <si>
+    <t>Epsilon
+Decreases - Overfit
+Increases - Underfit</t>
+  </si>
+  <si>
+    <t>RBF Svr is very similar to KNN</t>
+  </si>
+  <si>
+    <t>Don't use when n is very large o(n^2). People end up using Logistic Regression
+Example: Internet based applications</t>
+  </si>
+  <si>
+    <t>Very little impact</t>
+  </si>
+  <si>
+    <t>Syntax SVM Classifier</t>
+  </si>
+  <si>
+    <t>from sklearn.svm import SVC
+svc_clf=SVC(C=10,kernel='linear',probability=True)
+svc_clf.fit(tips,Y)
+svc_clf.predict_proba(tips)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>svc_clf.coef_</t>
+  </si>
+  <si>
+    <t>svc_poly=SVC(kernel='poly',degree=2,gamma=0.01,probability=True)</t>
+  </si>
+  <si>
+    <t>svc_poly=SVC(kernel='rbf',degree=2,gamma=0.01,probability=True)</t>
+  </si>
+  <si>
+    <t>Linear Support Vector Machies - Soft Margin SVM</t>
+  </si>
+  <si>
+    <t>Kernal Trick- Support Vector Machies</t>
+  </si>
+  <si>
+    <t>Kernal SVM</t>
+  </si>
+  <si>
+    <t>Soft Margin SVM</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>XGBoosting</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>TSNE</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>KFOLD</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>SVM Regressor</t>
+  </si>
+  <si>
+    <t>Hyper Parameters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The parameters used for defining a tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>min_samples_split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defines the minimum number of samples (or observations) which are required in a node to be considered for splitting.
+Used to control over-fitting. Higher values prevent a model from learning relations which might be highly specific to the particular sample selected for a tree.
+Too high values can lead to under-fitting hence, it should be tuned using CV.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>min_samples_leaf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defines the minimum samples (or observations) required in a terminal node or leaf.
+Used to control over-fitting similar to min_samples_split.
+Generally lower values should be chosen for imbalanced class problems because the regions in which the minority class will be in majority will be very small.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>min_weight_fraction_leaf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Similar to min_samples_leaf but defined as a fraction of the total number of observations instead of an integer.
+Only one of #2 and #3 should be defined.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>max_depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The maximum depth of a tree.
+Used to control over-fitting as higher depth will allow model to learn relations very specific to a particular sample.
+Should be tuned using CV.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>max_leaf_nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The maximum number of terminal nodes or leaves in a tree.
+Can be defined in place of max_depth. Since binary trees are created, a depth of ‘n’ would produce a maximum of 2^n leaves.
+If this is defined, GBM will ignore max_depth.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>max_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The number of features to consider while searching for a best split. These will be randomly selected.
+As a thumb-rule, square root of the total number of features works great but we should check upto 30-40% of the total number of features.
+Higher values can lead to over-fitting but depends on case to case.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> parameters for managing boosting:
+learning_rate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>This determines the impact of each tree on the final outcome (step 2.4). GBM works by starting with an initial estimate which is updated using the output of each tree. The learning parameter controls the magnitude of this change in the estimates.
+Lower values are generally preferred as they make the model robust to the specific characteristics of tree and thus allowing it to generalize well.
+Lower values would require higher number of trees to model all the relations and will be computationally expensive.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+n_estimators
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The number of sequential trees to be modeled (step 2)
+Though GBM is fairly robust at higher number of trees but it can still overfit at a point. Hence, this should be tuned using CV for a particular learning rate.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+subsample
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The fraction of observations to be selected for each tree. Selection is done by random sampling.
+Values slightly less than 1 make the model robust by reducing the variance.
+Typical values ~0.8 generally work fine but can be fine-tuned further.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2016/03/complete-guide-parameter-tuning-xgboost-with-codes-python/</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>class sklearn.decomposition.PCA(n_components=None, copy=True, whiten=False, svd_solver=’auto’, tol=0.0, iterated_power=’auto’, random_state=None)</t>
+  </si>
+  <si>
+    <t>from sklearn.decomposition import PCA
+decom=PCA(n_components=3)
+decom.fit(tips)</t>
+  </si>
+  <si>
+    <t>decom.explained_variance_</t>
+  </si>
+  <si>
+    <t>decom.explained_variance_ratio_</t>
+  </si>
+  <si>
+    <t>import numpy as np
+ratio=np.cumsum(decom.explained_variance_ratio_)
+ratio
+plt.figure(1,figsize=(6,4))
+plt.plot(ratio,linewidth=2)</t>
+  </si>
+  <si>
+    <t>decom.transform(tips)[0:5]</t>
+  </si>
+  <si>
+    <t>n_components</t>
+  </si>
+  <si>
+    <t>explained_variance_ratio</t>
+  </si>
+  <si>
+    <t>We have to find direction of f1_dash, such that the variance of xi's projected on to f1_dash is maximum</t>
+  </si>
+  <si>
+    <t>Every eigen value (lambda) has a eigen vector (v) associated with it. 
+Lambda_1&gt;=lambda_2&gt;=labmda&gt;=3…… &gt;=labmda&gt;=10
+lambda_1 is with high variance
+Lambda_10 with low variance
+Eigen value will be in the ascending order</t>
+  </si>
+  <si>
+    <t>KernelPCA, SparsePCA, TruncatedSVD, IncrementalPCA</t>
+  </si>
+  <si>
+    <t>perplexity (value between 5 and 50)
+n_iter (Should be at least 250)
+n_iter_without_progress (used after 250 initial iterations with early exaggeration and every 50 iterations so this value is rounded to the next multiple of 50)</t>
+  </si>
+  <si>
+    <t>class sklearn.manifold.TSNE(n_components=2, perplexity=30.0, early_exaggeration=12.0, learning_rate=200.0, n_iter=1000, n_iter_without_progress=300, min_grad_norm=1e-07, metric=’euclidean’, init=’random’, verbose=0, random_state=None, method=’barnes_hut’, angle=0.5)</t>
+  </si>
+  <si>
+    <t>n_components : int, optional (default: 2)
+Dimension of the embedded space</t>
+  </si>
+  <si>
+    <t>TSNE is not designed to preserve variance where as PCA preserves variance</t>
+  </si>
+  <si>
+    <t>Points in a cluster are close together 
+Points in different clusters are far away</t>
+  </si>
+  <si>
+    <t>KMEANS - Unsupervised Learning Technique</t>
+  </si>
+  <si>
+    <t>Deeply studied in data mining rather than machine learning</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>Identifying the customer behaviour
+Image segmentation</t>
+  </si>
+  <si>
+    <t>Hierarchichal Clustring, DB Scan</t>
+  </si>
+  <si>
+    <t>Intra Cluster (Should be less) and Inter Cluster Distances (Should be high)</t>
+  </si>
+  <si>
+    <t>Dora</t>
+  </si>
+  <si>
+    <t>Types of Metrics and when to use what</t>
+  </si>
+  <si>
+    <t>When will be use hypothesis testing in real time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +911,42 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1F22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +965,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -307,12 +995,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -358,7 +1055,64 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,7 +1174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -472,7 +1226,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -666,18 +1420,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB54F80B-3BD5-4132-ABFD-F850D773F3E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -686,69 +1440,1194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>49</v>
+      <c r="A1" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>19</v>
+      <c r="A2" s="24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>46</v>
+      <c r="A3" s="24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="16" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="16" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="23" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="23" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="23" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+      <c r="A9" s="23" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="16" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+      <c r="A12" s="16" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="16" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="LogisticRegression!A1" display="Logistic Regression" xr:uid="{74A0C86F-D2B2-4BD8-893D-68A5DDA0B34C}"/>
-    <hyperlink ref="A3" location="SVM!A1" display="SVM" xr:uid="{F439495E-C1CC-4EA6-9CF6-440D1B06CFEB}"/>
+    <hyperlink ref="A2" location="LogisticRegression!A1" display="Logistic Regression"/>
+    <hyperlink ref="A3" location="SVM!A1" display="SVM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A23:A28"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A23:A28"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="33"/>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A24:A29"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAF45D9-EB24-4E69-B740-46A9EC9CF64E}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A25:A27"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -759,244 +2638,318 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="7" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A31:A37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{8A4B5467-0E8F-4DA3-9B80-322CE79D1CF8}"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3950ABF6-D350-4020-A5F8-29409564E88C}">
-  <dimension ref="A1:B29"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
@@ -1005,182 +2958,742 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B16" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
       <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{29B15435-5FD1-4FEF-9A3F-E24AF6AC8A4B}"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A26:A34"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A30:A31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AppliedAI/Models_Finalize.xlsx
+++ b/AppliedAI/Models_Finalize.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="154">
   <si>
     <t>Missing Values</t>
   </si>
@@ -832,9 +832,6 @@
     <t>Hierarchichal Clustring, DB Scan</t>
   </si>
   <si>
-    <t>Intra Cluster (Should be less) and Inter Cluster Distances (Should be high)</t>
-  </si>
-  <si>
     <t>Dora</t>
   </si>
   <si>
@@ -842,6 +839,55 @@
   </si>
   <si>
     <t>When will be use hypothesis testing in real time</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Log Loss</t>
+  </si>
+  <si>
+    <t>Intra Cluster (Should be less) and Inter Cluster Distances (Should be high)
+Dunn Index</t>
+  </si>
+  <si>
+    <t>We will be using lloyd's algorithm to find the centroids and sets</t>
+  </si>
+  <si>
+    <t>Initialization sensitivity:- Final intra and inter cluster distances are very much dependent on the centoid initialization</t>
+  </si>
+  <si>
+    <t>Yes (We have to increase k to avoid this issue)</t>
+  </si>
+  <si>
+    <t>We have to use k-medoids for the interpretability
+Algorithms: PAM (Partitioning using medoids)</t>
+  </si>
+  <si>
+    <t>K 
+We will use elbow or knee method</t>
+  </si>
+  <si>
+    <t>class sklearn.cluster.KMeans(n_clusters=8, init=’k-means++’, n_init=10, max_iter=300, tol=0.0001, precompute_distances=’auto’, verbose=0, random_state=None, copy_x=True, n_jobs=None, algorithm=’auto’)</t>
+  </si>
+  <si>
+    <t>n_clusters : int, optional, default: 8
+The number of clusters to form as well as the number of centroids to generate.</t>
+  </si>
+  <si>
+    <t>init : {‘k-means++’, ‘random’ or an ndarray}
+Method for initialization, defaults to ‘k-means++’:
+‘k-means++’ : selects initial cluster centers for k-mean clustering in a smart way to speed up convergence. See section Notes in k_init for more details.
+‘random’: choose k observations (rows) at random from data for the initial centroids.
+If an ndarray is passed, it should be of shape (n_clusters, n_features) and gives the initial centers.</t>
+  </si>
+  <si>
+    <t>n_init : int, default: 10
+Number of time the k-means algorithm will be run with different centroid seeds. The final results will be the best output of n_init consecutive runs in terms of inertia.</t>
+  </si>
+  <si>
+    <t>max_iter : int, default: 300
+Maximum number of iterations of the k-means algorithm for a single run.</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1113,6 +1159,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1527,7 +1576,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1778,10 +1827,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2016,7 +2068,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,10 +2107,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2138,149 +2193,179 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="33"/>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="B29" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A27:A32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
@@ -2295,7 +2380,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,10 +2419,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,19 +2430,25 @@
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/AppliedAI/Models_Finalize.xlsx
+++ b/AppliedAI/Models_Finalize.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prudhviraju.s\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="909" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="909" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
-    <sheet name="LogisticRegression" sheetId="1" r:id="rId2"/>
-    <sheet name="Kernal_SVM" sheetId="4" r:id="rId3"/>
-    <sheet name="Soft Margin_SVM" sheetId="3" r:id="rId4"/>
-    <sheet name="SVM_Regressor" sheetId="5" r:id="rId5"/>
-    <sheet name="Decision Tree_Classifier" sheetId="6" r:id="rId6"/>
-    <sheet name="Random Forest_Classifier" sheetId="7" r:id="rId7"/>
-    <sheet name="Gradient Boosting Classifier" sheetId="9" r:id="rId8"/>
-    <sheet name="XG Boosting_Classifier" sheetId="8" r:id="rId9"/>
-    <sheet name="PCA" sheetId="10" r:id="rId10"/>
-    <sheet name="TSNE" sheetId="11" r:id="rId11"/>
-    <sheet name="KNN" sheetId="12" r:id="rId12"/>
-    <sheet name="KFold" sheetId="13" r:id="rId13"/>
-    <sheet name="Naive Bayes" sheetId="18" r:id="rId14"/>
-    <sheet name="Kmeans" sheetId="17" r:id="rId15"/>
-    <sheet name="Linear Regression" sheetId="14" r:id="rId16"/>
-    <sheet name="Pipe Line" sheetId="15" r:id="rId17"/>
-    <sheet name="Stacking Classifiers" sheetId="16" r:id="rId18"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId19"/>
+    <sheet name="Generic" sheetId="20" r:id="rId2"/>
+    <sheet name="LogisticRegression" sheetId="1" r:id="rId3"/>
+    <sheet name="Kernal_SVM" sheetId="4" r:id="rId4"/>
+    <sheet name="Soft Margin_SVM" sheetId="3" r:id="rId5"/>
+    <sheet name="SVM_Regressor" sheetId="5" r:id="rId6"/>
+    <sheet name="Decision Tree_Classifier" sheetId="6" r:id="rId7"/>
+    <sheet name="Random Forest_Classifier" sheetId="7" r:id="rId8"/>
+    <sheet name="Gradient Boosting Classifier" sheetId="9" r:id="rId9"/>
+    <sheet name="XG Boosting_Classifier" sheetId="8" r:id="rId10"/>
+    <sheet name="PCA" sheetId="10" r:id="rId11"/>
+    <sheet name="TSNE" sheetId="11" r:id="rId12"/>
+    <sheet name="KNN" sheetId="12" r:id="rId13"/>
+    <sheet name="KFold" sheetId="13" r:id="rId14"/>
+    <sheet name="Naive Bayes" sheetId="18" r:id="rId15"/>
+    <sheet name="Kmeans" sheetId="17" r:id="rId16"/>
+    <sheet name="Linear Regression" sheetId="14" r:id="rId17"/>
+    <sheet name="Pipe Line" sheetId="15" r:id="rId18"/>
+    <sheet name="Stacking Classifiers" sheetId="16" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="192">
   <si>
     <t>Missing Values</t>
   </si>
@@ -889,12 +895,127 @@
     <t>max_iter : int, default: 300
 Maximum number of iterations of the k-means algorithm for a single run.</t>
   </si>
+  <si>
+    <t>1. After analysing the model, your manager has informed that your regression model is suffering from multicollinearity. How would you check if he’s true? Without losing any information, can you still build a better model?(https://google-interview-hacks.blogspot.in/2017/04/after-analyzing-model-your-manager-has.html)</t>
+  </si>
+  <si>
+    <t>2. What are the basic assumptions to be made for linear regression?(https://www.appliedaicourse.com/course/applied-ai-course-online/lessons/geometric-intuition-1-2-copy-8/)</t>
+  </si>
+  <si>
+    <t>3. What is the difference between stochastic gradient descent (SGD) and gradient descent (GD)?(https://stats.stackexchange.com/questions/317675/gradient-descent-gd-vs-stochastic-gradient-descent-sgd)</t>
+  </si>
+  <si>
+    <t>4. When would you use GD over SDG, and vice-versa?(https://elitedatascience.com/machine-learning-interview-questions-answers)</t>
+  </si>
+  <si>
+    <t>5. How do you decide whether your linear regression model fits the data?(https://www.researchgate.net/post/What_statistical_test_is_required_to_assess_goodness_of_fit_of_a_linear_or_nonlinear_regression_equation)</t>
+  </si>
+  <si>
+    <t>6. Is it possible to perform logistic regression with Microsoft Excel?(https://www.youtube.com/watch?v=EKRjDurXau0)</t>
+  </si>
+  <si>
+    <t>7. When will you use classification over regression?(https://www.quora.com/When-will-you-use-classification-over-regression)</t>
+  </si>
+  <si>
+    <t>8. Why isn’t Logistic Regression called Logistic Classification?(Refer :https://stats.stackexchange.com/questions/127042/why-isnt-logistic-regression-called-logistic-classification/127044)
+You can also think of logistic regression as a special case of linear regression when the outcome variable is categorical, where we are using log of odds as dependent variable. In simple words, it predicts the probability of occurrence of an event by fitting data to a logit function.</t>
+  </si>
+  <si>
+    <t>1. What are the essential steps in a predictive modeling project?</t>
+  </si>
+  <si>
+    <t>It consists of the following steps -</t>
+  </si>
+  <si>
+    <t>1. Establish business objective of a predictive model</t>
+  </si>
+  <si>
+    <t>2. Pull Historical Data - Internal and External</t>
+  </si>
+  <si>
+    <t>3. Select Observation and Performance Window</t>
+  </si>
+  <si>
+    <t>4. Create newly derived variables</t>
+  </si>
+  <si>
+    <t>5. Split Data into Training, Validation and Test Samples</t>
+  </si>
+  <si>
+    <t>6. Clean Data - Treatment of Missing Values and Outliers</t>
+  </si>
+  <si>
+    <t>7. Variable Reduction / Selection</t>
+  </si>
+  <si>
+    <t>8. Variable Transformation</t>
+  </si>
+  <si>
+    <t>9. Develop Model</t>
+  </si>
+  <si>
+    <t>10. Validate Model</t>
+  </si>
+  <si>
+    <t>11. Check Model Performance</t>
+  </si>
+  <si>
+    <t>12. Deploy Model</t>
+  </si>
+  <si>
+    <t>13. Monitor Model</t>
+  </si>
+  <si>
+    <t>2. What are the applications of predictive modeling?</t>
+  </si>
+  <si>
+    <t>Predictive modeling is mostly used in the following areas -</t>
+  </si>
+  <si>
+    <t>1. Acquisition - Cross Sell / Up Sell</t>
+  </si>
+  <si>
+    <t>2. Retention - Predictive Attrition Model</t>
+  </si>
+  <si>
+    <t>3. Customer Lifetime Value Model</t>
+  </si>
+  <si>
+    <t>4. Next Best Offer</t>
+  </si>
+  <si>
+    <t>5. Market Mix Model</t>
+  </si>
+  <si>
+    <t>6. Pricing Model</t>
+  </si>
+  <si>
+    <t>7. Campaign Response Model</t>
+  </si>
+  <si>
+    <t>8. Probability of Customers defaulting on loan</t>
+  </si>
+  <si>
+    <t>9. Segment customers based on their homogenous attributes</t>
+  </si>
+  <si>
+    <t>10. Demand Forecasting</t>
+  </si>
+  <si>
+    <t>11. Usage Simulation</t>
+  </si>
+  <si>
+    <t>12. Underwriting</t>
+  </si>
+  <si>
+    <t>13. Optimization - Optimize Network</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +1112,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF990000"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1055,7 +1193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1146,6 +1284,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1158,9 +1300,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1469,99 +1619,99 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="32" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1">
       <c r="A5" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1">
       <c r="A6" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1">
       <c r="A7" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1">
       <c r="A8" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1">
       <c r="A9" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1">
       <c r="A10" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1">
       <c r="A11" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1">
       <c r="A12" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1">
       <c r="A14" s="16" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="LogisticRegression!A1" display="Logistic Regression"/>
-    <hyperlink ref="A3" location="SVM!A1" display="SVM"/>
+    <hyperlink ref="A2" location="LogisticRegression!A1" display="Logistic Regression" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" location="SVM!A1" display="SVM" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1569,7 +1719,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -1579,14 +1749,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -1594,7 +1764,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -1602,7 +1772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1780,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="22" t="s">
         <v>43</v>
       </c>
@@ -1618,7 +1788,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
@@ -1626,13 +1796,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
@@ -1640,21 +1810,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="75">
+      <c r="A9" s="36"/>
       <c r="B9" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1832,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="22" t="s">
         <v>47</v>
       </c>
@@ -1670,7 +1840,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
@@ -1678,7 +1848,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="22" t="s">
         <v>73</v>
       </c>
@@ -1686,7 +1856,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
@@ -1694,13 +1864,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="22" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1878,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
         <v>25</v>
       </c>
@@ -1716,7 +1886,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
         <v>15</v>
       </c>
@@ -1724,7 +1894,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="22" t="s">
         <v>16</v>
       </c>
@@ -1732,7 +1902,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="22" t="s">
         <v>27</v>
       </c>
@@ -1740,7 +1910,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="22" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
@@ -1756,45 +1926,45 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="36"/>
       <c r="B24" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="36"/>
       <c r="B25" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="36"/>
       <c r="B26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:2" ht="75">
+      <c r="A27" s="36"/>
       <c r="B27" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="36"/>
       <c r="B28" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
         <v>29</v>
       </c>
@@ -1802,7 +1972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="37.5">
       <c r="A30" s="12" t="s">
         <v>31</v>
       </c>
@@ -1810,23 +1980,23 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" ht="15"/>
+    <row r="34" s="1" customFormat="1" ht="15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A23:A28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -1836,14 +2006,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -1851,7 +2021,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -1859,7 +2029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +2037,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>43</v>
       </c>
@@ -1875,7 +2045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
@@ -1883,13 +2053,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
@@ -1897,19 +2067,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="39"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
         <v>8</v>
       </c>
@@ -1917,13 +2087,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
         <v>10</v>
       </c>
@@ -1931,7 +2101,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
         <v>73</v>
       </c>
@@ -1939,7 +2109,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
         <v>12</v>
       </c>
@@ -1947,13 +2117,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
@@ -1961,7 +2131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="28" t="s">
         <v>25</v>
       </c>
@@ -1969,13 +2139,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="28" t="s">
         <v>16</v>
       </c>
@@ -1983,7 +2153,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="57.75">
       <c r="A20" s="28" t="s">
         <v>27</v>
       </c>
@@ -1991,7 +2161,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="28" t="s">
         <v>35</v>
       </c>
@@ -1999,7 +2169,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="28" t="s">
         <v>24</v>
       </c>
@@ -2007,106 +2177,106 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="36"/>
       <c r="B24" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="36"/>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="36"/>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="36"/>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="36"/>
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="37.5">
       <c r="A30" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="7"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" ht="15"/>
+    <row r="34" s="1" customFormat="1" ht="15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A23:A28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -2116,14 +2286,14 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -2131,7 +2301,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -2139,7 +2309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2317,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
         <v>43</v>
       </c>
@@ -2155,7 +2325,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
         <v>1</v>
       </c>
@@ -2163,7 +2333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
         <v>2</v>
       </c>
@@ -2171,7 +2341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
@@ -2179,37 +2349,37 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="39"/>
       <c r="B9" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="39"/>
       <c r="B10" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39" t="s">
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="39"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="32" t="s">
         <v>135</v>
       </c>
@@ -2217,7 +2387,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +2395,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
         <v>47</v>
       </c>
@@ -2233,7 +2403,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="32" t="s">
         <v>10</v>
       </c>
@@ -2241,37 +2411,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="30">
       <c r="A22" s="30" t="s">
         <v>15</v>
       </c>
@@ -2279,13 +2449,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="29.25">
       <c r="A24" s="30" t="s">
         <v>27</v>
       </c>
@@ -2293,72 +2463,71 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="36"/>
       <c r="B28" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:2" ht="75">
+      <c r="A29" s="36"/>
       <c r="B29" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="36"/>
       <c r="B30" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="36"/>
       <c r="B31" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="36"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="37.5">
       <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
@@ -2368,87 +2537,216 @@
     <mergeCell ref="A27:A32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09909A8C-4ACA-4DAC-9484-28E0B482BD33}">
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>140</v>
+    <row r="1" spans="1:1" ht="46.5">
+      <c r="A1" s="41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="23.25">
+      <c r="A16" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="43" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2456,25 +2754,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -2482,7 +2819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -2490,7 +2827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
@@ -2506,7 +2843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -2514,7 +2851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +2859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -2530,27 +2867,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
         <v>47</v>
       </c>
@@ -2566,7 +2903,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="45">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="10" t="s">
         <v>73</v>
       </c>
@@ -2582,7 +2919,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -2590,13 +2927,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -2604,7 +2941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
@@ -2612,7 +2949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="30">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -2620,7 +2957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
@@ -2628,7 +2965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="45">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -2636,7 +2973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
         <v>35</v>
       </c>
@@ -2644,7 +2981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
@@ -2652,7 +2989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="60">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
@@ -2660,27 +2997,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:2" ht="135">
+      <c r="A26" s="36"/>
       <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="36"/>
       <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="30">
       <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
@@ -2688,12 +3025,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="60">
       <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="42.75">
+      <c r="B30" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.5">
+      <c r="B31" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.5">
+      <c r="B32" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="42.75">
+      <c r="B34" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="57">
+      <c r="B37" s="40" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2702,15 +3079,15 @@
     <mergeCell ref="A25:A27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -2720,14 +3097,14 @@
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -2735,7 +3112,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -2743,7 +3120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -2751,13 +3128,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2765,7 +3142,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -2773,7 +3150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -2781,63 +3158,63 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="36" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="36"/>
       <c r="B11" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:2" ht="90">
+      <c r="A12" s="36"/>
       <c r="B12" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="36"/>
       <c r="B13" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="36"/>
       <c r="B14" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="36"/>
       <c r="B15" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="36"/>
       <c r="B16" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
         <v>8</v>
       </c>
@@ -2845,7 +3222,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
@@ -2853,7 +3230,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="11" t="s">
         <v>80</v>
       </c>
@@ -2861,13 +3238,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
@@ -2875,7 +3252,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="30">
       <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
@@ -2883,7 +3260,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
         <v>14</v>
       </c>
@@ -2891,19 +3268,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
@@ -2911,7 +3288,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="90">
       <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
@@ -2919,7 +3296,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="30">
       <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
@@ -2927,63 +3304,63 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="36"/>
       <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="36"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="36"/>
       <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:2" ht="90">
+      <c r="A35" s="36"/>
       <c r="B35" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="36"/>
       <c r="B36" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="36"/>
       <c r="B37" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="30">
       <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
@@ -2991,13 +3368,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="37.5">
       <c r="A39" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="45">
       <c r="A40" s="12" t="s">
         <v>64</v>
       </c>
@@ -3005,7 +3382,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="45">
       <c r="A41" s="11" t="s">
         <v>59</v>
       </c>
@@ -3013,10 +3390,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="B43" s="1"/>
     </row>
   </sheetData>
@@ -3025,29 +3402,29 @@
     <mergeCell ref="A31:A37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -3055,7 +3432,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -3063,83 +3440,83 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="36"/>
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="36"/>
       <c r="B12" s="19"/>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="36"/>
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
@@ -3147,49 +3524,49 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
@@ -3197,7 +3574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="30">
       <c r="A25" s="10" t="s">
         <v>35</v>
       </c>
@@ -3205,41 +3582,41 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+    <row r="28" spans="1:2" ht="60">
+      <c r="A28" s="36" t="s">
         <v>92</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="36"/>
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="36"/>
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="37.5">
       <c r="A32" s="12" t="s">
         <v>31</v>
       </c>
@@ -3251,28 +3628,28 @@
     <mergeCell ref="A28:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -3280,7 +3657,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -3288,7 +3665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -3296,13 +3673,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3310,7 +3687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -3318,7 +3695,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -3326,29 +3703,29 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="36" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="36"/>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -3356,7 +3733,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
         <v>47</v>
       </c>
@@ -3364,7 +3741,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
         <v>80</v>
       </c>
@@ -3372,13 +3749,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -3386,7 +3763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -3394,7 +3771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -3402,19 +3779,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
         <v>16</v>
       </c>
@@ -3422,7 +3799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="45">
       <c r="A22" s="11" t="s">
         <v>27</v>
       </c>
@@ -3430,90 +3807,90 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="36"/>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="36"/>
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="36"/>
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="36"/>
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="36"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="36"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="36"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="36"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="37.5">
       <c r="A36" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="B40" s="1"/>
     </row>
   </sheetData>
@@ -3522,56 +3899,56 @@
     <mergeCell ref="A26:A34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -3579,7 +3956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -3587,170 +3964,170 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="36"/>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="36"/>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="37.5">
       <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:2" ht="360">
+      <c r="A30" s="37" t="s">
         <v>112</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:2" ht="195">
+      <c r="A31" s="38"/>
       <c r="B31" s="27" t="s">
         <v>114</v>
       </c>
@@ -3762,29 +4139,9 @@
     <mergeCell ref="A30:A31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AppliedAI/Models_Finalize.xlsx
+++ b/AppliedAI/Models_Finalize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="909" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="909" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="162">
   <si>
     <t>Missing Values</t>
   </si>
@@ -889,12 +889,38 @@
     <t>max_iter : int, default: 300
 Maximum number of iterations of the k-means algorithm for a single run.</t>
   </si>
+  <si>
+    <t>2. What are the basic assumptions to be made for linear regression?(https://www.appliedaicourse.com/course/applied-ai-course-online/lessons/geometric-intuition-1-2-copy-8/)</t>
+  </si>
+  <si>
+    <t>3. What is the difference between stochastic gradient descent (SGD) and gradient descent (GD)?(https://stats.stackexchange.com/questions/317675/gradient-descent-gd-vs-stochastic-gradient-descent-sgd)</t>
+  </si>
+  <si>
+    <t>4. When would you use GD over SDG, and vice-versa?(https://elitedatascience.com/machine-learning-interview-questions-answers)</t>
+  </si>
+  <si>
+    <t>5. How do you decide whether your linear regression model fits the data?(https://www.researchgate.net/post/What_statistical_test_is_required_to_assess_goodness_of_fit_of_a_linear_or_nonlinear_regression_equation)</t>
+  </si>
+  <si>
+    <t>6. Is it possible to perform logistic regression with Microsoft Excel?(https://www.youtube.com/watch?v=EKRjDurXau0)</t>
+  </si>
+  <si>
+    <t>7. When will you use classification over regression?(https://www.quora.com/When-will-you-use-classification-over-regression)</t>
+  </si>
+  <si>
+    <t>8. Why isn’t Logistic Regression called Logistic Classification?(Refer :https://stats.stackexchange.com/questions/127042/why-isnt-logistic-regression-called-logistic-classification/127044)</t>
+  </si>
+  <si>
+    <t>1. After analysing the model, your manager has informed that your regression model is suffering from multicollinearity. How would you check if he’s true? Without losing any information, can you still build a better model?(https://google-interview-hacks.blogspot.in/2017/04/after-analyzing-model-your-manager-has.html)
+To check multicollinearity, we can create a correlation matrix to identify &amp; remove variables having correlation above 75% (deciding a threshold is subjective). In addition, we can use calculate VIF (variance inflation factor) to check the presence of multicollinearity. VIF value &lt;= 4 suggests no multicollinearity whereas a value of &gt;= 10 implies serious multicollinearity. Also, we can use tolerance as an indicator of multicollinearity.
+But, removing correlated variables might lead to loss of information. In order to retain those variables, we can use penalized regression models like ridge or lasso regression. Also, we can add some random noise in correlated variable so that the variables become different from each other. But, adding noise might affect the prediction accuracy, hence this approach should be carefully used.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +1017,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1055,7 +1086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1146,6 +1177,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1158,9 +1193,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1469,7 +1503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1483,77 +1517,77 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="32" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1">
       <c r="A5" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1">
       <c r="A6" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1">
       <c r="A7" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1">
       <c r="A8" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1">
       <c r="A9" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1">
       <c r="A10" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1">
       <c r="A11" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1">
       <c r="A12" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1">
       <c r="A14" s="16" t="s">
         <v>110</v>
       </c>
@@ -1579,14 +1613,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -1594,7 +1628,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -1602,7 +1636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="22" t="s">
         <v>43</v>
       </c>
@@ -1618,7 +1652,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
@@ -1626,13 +1660,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
@@ -1640,21 +1674,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="75">
+      <c r="A9" s="36"/>
       <c r="B9" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1696,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="22" t="s">
         <v>47</v>
       </c>
@@ -1670,7 +1704,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
@@ -1678,7 +1712,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="22" t="s">
         <v>73</v>
       </c>
@@ -1686,7 +1720,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
@@ -1694,13 +1728,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="22" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
         <v>25</v>
       </c>
@@ -1716,7 +1750,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
         <v>15</v>
       </c>
@@ -1724,7 +1758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="22" t="s">
         <v>16</v>
       </c>
@@ -1732,7 +1766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="22" t="s">
         <v>27</v>
       </c>
@@ -1740,7 +1774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="22" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1782,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
@@ -1756,45 +1790,45 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="36"/>
       <c r="B24" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="36"/>
       <c r="B25" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="36"/>
       <c r="B26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:2" ht="75">
+      <c r="A27" s="36"/>
       <c r="B27" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="36"/>
       <c r="B28" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
         <v>29</v>
       </c>
@@ -1802,7 +1836,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="37.5">
       <c r="A30" s="12" t="s">
         <v>31</v>
       </c>
@@ -1810,8 +1844,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" ht="15"/>
+    <row r="34" s="1" customFormat="1" ht="15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:A9"/>
@@ -1836,14 +1870,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -1851,7 +1885,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -1859,7 +1893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>43</v>
       </c>
@@ -1875,7 +1909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
@@ -1883,13 +1917,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
@@ -1897,19 +1931,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="39"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
         <v>8</v>
       </c>
@@ -1917,13 +1951,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
         <v>10</v>
       </c>
@@ -1931,7 +1965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
         <v>73</v>
       </c>
@@ -1939,7 +1973,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
         <v>12</v>
       </c>
@@ -1947,13 +1981,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
@@ -1961,7 +1995,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="28" t="s">
         <v>25</v>
       </c>
@@ -1969,13 +2003,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="28" t="s">
         <v>16</v>
       </c>
@@ -1983,7 +2017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="57.75">
       <c r="A20" s="28" t="s">
         <v>27</v>
       </c>
@@ -1991,7 +2025,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="28" t="s">
         <v>35</v>
       </c>
@@ -1999,7 +2033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="28" t="s">
         <v>24</v>
       </c>
@@ -2007,50 +2041,50 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="36"/>
       <c r="B24" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="36"/>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="36"/>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="36"/>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="36"/>
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="37.5">
       <c r="A30" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="7"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" ht="15"/>
+    <row r="34" s="1" customFormat="1" ht="15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:A9"/>
@@ -2071,7 +2105,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2085,7 +2119,7 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2099,7 +2133,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2116,14 +2150,14 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -2131,7 +2165,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -2139,7 +2173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2181,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
         <v>43</v>
       </c>
@@ -2155,7 +2189,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
         <v>1</v>
       </c>
@@ -2163,7 +2197,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
         <v>2</v>
       </c>
@@ -2171,7 +2205,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
@@ -2179,37 +2213,37 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="39"/>
       <c r="B9" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="39"/>
       <c r="B10" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39" t="s">
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="39"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="32" t="s">
         <v>135</v>
       </c>
@@ -2217,7 +2251,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +2259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
         <v>47</v>
       </c>
@@ -2233,7 +2267,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="32" t="s">
         <v>10</v>
       </c>
@@ -2241,37 +2275,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="30">
       <c r="A22" s="30" t="s">
         <v>15</v>
       </c>
@@ -2279,13 +2313,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="29.25">
       <c r="A24" s="30" t="s">
         <v>27</v>
       </c>
@@ -2293,72 +2327,71 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="36"/>
       <c r="B28" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:2" ht="75">
+      <c r="A29" s="36"/>
       <c r="B29" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="36"/>
       <c r="B30" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="36"/>
       <c r="B31" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="36"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="37.5">
       <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
@@ -2383,7 +2416,7 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2397,7 +2430,7 @@
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2411,7 +2444,7 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2421,21 +2454,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="34" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -2446,7 +2479,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -2461,20 +2494,20 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -2482,7 +2515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -2490,7 +2523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
@@ -2506,7 +2539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -2514,7 +2547,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +2555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -2530,27 +2563,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
         <v>47</v>
       </c>
@@ -2566,7 +2599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="45">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="10" t="s">
         <v>73</v>
       </c>
@@ -2582,7 +2615,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -2590,13 +2623,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -2604,7 +2637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
@@ -2612,7 +2645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="30">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -2620,7 +2653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
@@ -2628,7 +2661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="45">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -2636,7 +2669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
         <v>35</v>
       </c>
@@ -2644,7 +2677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
@@ -2652,7 +2685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="60">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
@@ -2660,27 +2693,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:2" ht="135">
+      <c r="A26" s="36"/>
       <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="36"/>
       <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="30">
       <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
@@ -2688,12 +2721,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="60">
       <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="142.5">
+      <c r="B30" s="40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.5">
+      <c r="B31" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.5">
+      <c r="B32" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="42.75">
+      <c r="B34" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="28.5">
+      <c r="B37" s="40" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2720,14 +2793,14 @@
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -2735,7 +2808,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -2743,7 +2816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -2751,13 +2824,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -2765,7 +2838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -2773,7 +2846,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -2781,63 +2854,63 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="36" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="36"/>
       <c r="B11" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:2" ht="90">
+      <c r="A12" s="36"/>
       <c r="B12" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="36"/>
       <c r="B13" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="36"/>
       <c r="B14" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="36"/>
       <c r="B15" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="36"/>
       <c r="B16" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
         <v>8</v>
       </c>
@@ -2845,7 +2918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
@@ -2853,7 +2926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="11" t="s">
         <v>80</v>
       </c>
@@ -2861,13 +2934,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
@@ -2875,7 +2948,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="30">
       <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
@@ -2883,7 +2956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
         <v>14</v>
       </c>
@@ -2891,19 +2964,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
@@ -2911,7 +2984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="90">
       <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
@@ -2919,7 +2992,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="30">
       <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
@@ -2927,63 +3000,63 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="36"/>
       <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="36"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="36"/>
       <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:2" ht="90">
+      <c r="A35" s="36"/>
       <c r="B35" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="36"/>
       <c r="B36" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="36"/>
       <c r="B37" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="30">
       <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
@@ -2991,13 +3064,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="37.5">
       <c r="A39" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="45">
       <c r="A40" s="12" t="s">
         <v>64</v>
       </c>
@@ -3005,7 +3078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="45">
       <c r="A41" s="11" t="s">
         <v>59</v>
       </c>
@@ -3013,10 +3086,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="B43" s="1"/>
     </row>
   </sheetData>
@@ -3040,14 +3113,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -3055,7 +3128,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -3063,83 +3136,83 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="36"/>
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="36"/>
       <c r="B12" s="19"/>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="36"/>
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
@@ -3147,49 +3220,49 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
@@ -3197,7 +3270,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="30">
       <c r="A25" s="10" t="s">
         <v>35</v>
       </c>
@@ -3205,41 +3278,41 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+    <row r="28" spans="1:2" ht="60">
+      <c r="A28" s="36" t="s">
         <v>92</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="36"/>
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="36"/>
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="37.5">
       <c r="A32" s="12" t="s">
         <v>31</v>
       </c>
@@ -3265,14 +3338,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="33.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -3280,7 +3353,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -3288,7 +3361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -3296,13 +3369,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3310,7 +3383,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -3318,7 +3391,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -3326,29 +3399,29 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="36" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="36"/>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -3356,7 +3429,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
         <v>47</v>
       </c>
@@ -3364,7 +3437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
         <v>80</v>
       </c>
@@ -3372,13 +3445,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -3386,7 +3459,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -3394,7 +3467,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -3402,19 +3475,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
         <v>16</v>
       </c>
@@ -3422,7 +3495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="45">
       <c r="A22" s="11" t="s">
         <v>27</v>
       </c>
@@ -3430,90 +3503,90 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="36"/>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="36"/>
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="36"/>
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="36"/>
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="36"/>
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="36"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="36"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="36"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="37.5">
       <c r="A36" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="B40" s="1"/>
     </row>
   </sheetData>
@@ -3536,7 +3609,7 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3550,7 +3623,7 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3564,14 +3637,14 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="144.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -3579,7 +3652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -3587,170 +3660,170 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="36"/>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="36"/>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="37.5">
       <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:2" ht="360">
+      <c r="A30" s="37" t="s">
         <v>112</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:2" ht="195">
+      <c r="A31" s="38"/>
       <c r="B31" s="27" t="s">
         <v>114</v>
       </c>
@@ -3777,9 +3850,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>115</v>
       </c>

--- a/AppliedAI/Models_Finalize.xlsx
+++ b/AppliedAI/Models_Finalize.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prudhviraju.s\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="909" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="909"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -43,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="193">
   <si>
     <t>Missing Values</t>
   </si>
@@ -1010,11 +1005,14 @@
   <si>
     <t>13. Optimization - Optimize Network</t>
   </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2016/09/40-interview-questions-asked-at-startups-in-machine-learning-data-science/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -1193,7 +1191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1288,6 +1286,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1300,18 +1310,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1619,107 +1618,112 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="C1" s="44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" s="16" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="LogisticRegression!A1" display="Logistic Regression" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" location="SVM!A1" display="SVM" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" location="LogisticRegression!A1" display="Logistic Regression"/>
+    <hyperlink ref="A3" location="SVM!A1" display="SVM"/>
+    <hyperlink ref="C1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1739,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -1811,7 +1815,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1819,7 +1823,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="36"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="5" t="s">
         <v>126</v>
       </c>
@@ -1927,7 +1931,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1935,31 +1939,31 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="36"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="36"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="36"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
-      <c r="A27" s="36"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="36"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="7" t="s">
         <v>122</v>
       </c>
@@ -1988,7 +1992,7 @@
     <mergeCell ref="A23:A28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1996,7 +2000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -2068,7 +2072,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2076,7 +2080,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2">
@@ -2178,7 +2182,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -2186,25 +2190,25 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="36"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="36"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="36"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="36"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="36"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:2">
@@ -2227,14 +2231,14 @@
     <mergeCell ref="A23:A28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2248,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2262,7 +2266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2276,7 +2280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -2350,7 +2354,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2358,25 +2362,25 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="35" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" ht="30">
@@ -2476,7 +2480,7 @@
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2484,31 +2488,31 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="36"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75">
-      <c r="A29" s="36"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="36"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="36"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="36"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2">
@@ -2537,7 +2541,7 @@
     <mergeCell ref="A27:A32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2545,7 +2549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2559,7 +2563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2573,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2587,10 +2591,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09909A8C-4ACA-4DAC-9484-28E0B482BD33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2600,152 +2604,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="46.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="37" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="38" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="39" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="39" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="39" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="39" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="39" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="39" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="39" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="39" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="39" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="23.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="37" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="38" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="39" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="39" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="39" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="39" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="39" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="39" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="39" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="39" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="39" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="39" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="39" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="39" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2755,7 +2759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2794,7 +2798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -2868,7 +2872,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2876,13 +2880,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="36"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="36"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -2998,7 +3002,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3006,13 +3010,13 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="135">
-      <c r="A26" s="36"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="36"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
@@ -3034,42 +3038,42 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="42.75">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="36" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="28.5">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="36" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="28.5">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="36" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="42.75">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="36" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="36" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="57">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="36" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3079,7 +3083,7 @@
     <mergeCell ref="A25:A27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3087,7 +3091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -3159,7 +3163,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -3167,49 +3171,49 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="36"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="36"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="36"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="90">
-      <c r="A12" s="36"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="36"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="36"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="36"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
-      <c r="A16" s="36"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="21" t="s">
         <v>63</v>
       </c>
@@ -3317,7 +3321,7 @@
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="40" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -3325,37 +3329,37 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="36"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="36"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="36"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
-      <c r="A35" s="36"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="36"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
-      <c r="A37" s="36"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="7" t="s">
         <v>97</v>
       </c>
@@ -3402,7 +3406,7 @@
     <mergeCell ref="A31:A37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3410,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3471,7 +3475,7 @@
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3479,29 +3483,29 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="36"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="36"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="36"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
-      <c r="A12" s="36"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2" ht="15">
-      <c r="A13" s="36"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:2">
@@ -3595,7 +3599,7 @@
       <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2" ht="60">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="40" t="s">
         <v>92</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -3603,11 +3607,11 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="36"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="36"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2">
@@ -3628,14 +3632,14 @@
     <mergeCell ref="A28:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3704,7 +3708,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3712,17 +3716,17 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="36"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="36"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="36"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2">
@@ -3826,41 +3830,41 @@
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="40" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="36"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="36"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="36"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="36"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2" ht="15">
-      <c r="A31" s="36"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="36"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="36"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="36"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2">
@@ -3899,14 +3903,14 @@
     <mergeCell ref="A26:A34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3920,7 +3924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3934,7 +3938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
@@ -3995,17 +3999,17 @@
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="36"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="36"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2">
@@ -4093,17 +4097,17 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="36"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="36"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2">
@@ -4119,7 +4123,7 @@
       <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:2" ht="360">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="41" t="s">
         <v>112</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -4127,7 +4131,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="195">
-      <c r="A31" s="38"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="27" t="s">
         <v>114</v>
       </c>
@@ -4139,7 +4143,7 @@
     <mergeCell ref="A30:A31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Reference!A1" display="Home Page" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A1" location="Reference!A1" display="Home Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
